--- a/report/production/templateExcel/批量上传患者信息20180509.xlsx
+++ b/report/production/templateExcel/批量上传患者信息20180509.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/PycharmProjects/yucebio/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\yucebioAdmin\report\production\templateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="27980" windowHeight="12280"/>
+    <workbookView xWindow="480" yWindow="465" windowWidth="27975" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,24 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
-  <si>
-    <t>孙素兰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>肺癌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>张蕾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乳腺癌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>patientid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -67,68 +55,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>张云香</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄永全</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭书云</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡信义</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>段珊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴子章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>双发肺癌、食管癌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>肺癌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>肺腺癌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>淋巴瘤II期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>左肺腺癌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
+    <t>朱大肠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800001(样例请勿添加)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[DBNum2][$-804]General&quot;元&quot;&quot;整&quot;"/>
+    <numFmt numFmtId="176" formatCode="[DBNum2][$-804]General&quot;元&quot;&quot;整&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -142,7 +92,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -198,10 +148,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -209,45 +159,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <condense val="0"/>
@@ -277,6 +191,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -569,190 +486,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="16.5">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1800445</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D2" s="4">
         <v>55</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1800121</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4">
-        <v>34</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>180000257</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4">
-        <v>85</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1800446</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4">
-        <v>66</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>1800442</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4">
-        <v>53</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>1800141</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4">
-        <v>67</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>1800348</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>1800525</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4">
-        <v>70</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B9">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A9">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B9">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -764,7 +553,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -777,7 +566,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report/production/templateExcel/批量上传患者信息20180509.xlsx
+++ b/report/production/templateExcel/批量上传患者信息20180509.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\yucebioAdmin\report\production\templateExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="465" windowWidth="27975" windowHeight="12285"/>
+    <workbookView xWindow="480" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -55,22 +47,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>朱大肠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1800001(样例请勿添加)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[DBNum2][$-804]General&quot;元&quot;&quot;整&quot;"/>
   </numFmts>
@@ -242,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -277,7 +269,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -489,7 +481,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -520,13 +512,13 @@
     </row>
     <row r="2" spans="1:5" ht="16.5">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="4">
         <v>55</v>
